--- a/W1-1-8组内评审表.xlsx
+++ b/W1-1-8组内评审表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Web工程 Team Project组内评审表</t>
   </si>
@@ -50,40 +50,74 @@
     <t>理由(注明工作任务完成的优缺点)</t>
   </si>
   <si>
+    <t>评分</t>
+  </si>
+  <si>
     <t>范波涛</t>
   </si>
   <si>
     <t>组员</t>
   </si>
   <si>
+    <t>主要负责后端的实现；积极参与需求以及实现的讨论。</t>
+  </si>
+  <si>
     <t>张月冬</t>
   </si>
   <si>
+    <t>主要负责前端和和一些前后端交互逻辑。优点：运用了jquery和以其为基础的像jquery.datatable等热门插件，逻辑处理比较好等。缺点：前端各个页面的颜色搭配不是太好。</t>
+  </si>
+  <si>
     <t>唐少伟</t>
   </si>
   <si>
+    <t xml:space="preserve">优点：测试比较全面，对web应用进行了单元测试，安全测试，性能测试，功能测试和webui测试。缺点：有一些测试不能对web应用进行完整的测试，有测试不到的地方。
+</t>
+  </si>
+  <si>
     <t>阳湘源</t>
   </si>
   <si>
     <t>组长</t>
   </si>
   <si>
+    <t>根据组员擅长领域合理分配任务；规定时间内组织小组成员实现项目；组织小组讨论功能需求以及实现设计；对项目进行测试检测不足并迭代更新。没有更多的参与打代码的过程。</t>
+  </si>
+  <si>
     <t>马继凯</t>
   </si>
   <si>
+    <t>参与了前端登录、注册、名片信息展示的页面制作，没有太多参与后台逻辑设计</t>
+  </si>
+  <si>
     <t>时江波</t>
   </si>
   <si>
+    <t>主要负责web应用建模和运维两方面，基本实现了所要求的任务以及功能，但是在实现细节上有些不严谨。</t>
+  </si>
+  <si>
     <t>杨松伟</t>
   </si>
   <si>
+    <t>在此项目中，服从组长的安排，积极讨论项目的设计与分析，认真地完成组长安排的具体任务。</t>
+  </si>
+  <si>
     <t>田科</t>
   </si>
   <si>
+    <t>对项目需求的分析到位，需求文档书写规范。</t>
+  </si>
+  <si>
     <t>田聪</t>
   </si>
   <si>
+    <t>优点：文档分析到位、全面且格式规范，在做相关图时能正确明了，为后面的进一步工作奠定了基础。缺点：参与工作量不多。</t>
+  </si>
+  <si>
     <t>梁思聪</t>
+  </si>
+  <si>
+    <t>与他人合作，积极参与项目需求、分析及实现的讨论；借鉴帮助较多。</t>
   </si>
   <si>
     <t>评审细则：组长组织小组成员进行内部评审，将小组成员按工作任务量和完成质量进行排名。并在每为同学后注明工作的优缺点。</t>
@@ -95,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -135,16 +169,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -177,47 +211,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +303,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -285,13 +312,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,31 +346,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,121 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,21 +727,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -751,6 +776,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -762,152 +802,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,19 +978,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,19 +1378,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.56666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.425" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="66.1416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="151" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.14166666666667" style="2"/>
     <col min="7" max="7" width="14.125" style="2"/>
     <col min="8" max="16384" width="9.14166666666667" style="2"/>
@@ -1367,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1383,165 +1432,218 @@
       <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="11">
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>15130110029</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>15130110038</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>15130110013</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>15130110066</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>15130110026</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>15130110044</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
+        <v>15130110037</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B11" s="13">
+        <v>15130110016</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="B12" s="13">
+        <v>15130110031</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12">
-        <v>15130110038</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12">
-        <v>15130110013</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12">
-        <v>15130110066</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12">
-        <v>15130110026</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12">
-        <v>15130110044</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12">
-        <v>15130110037</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12">
-        <v>15130110016</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12">
-        <v>15130110031</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="11">
+      <c r="B13" s="13">
+        <v>15010510019</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="12">
-        <v>15010510019</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" ht="40.5" customHeight="1" spans="1:5">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="A14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
